--- a/src/utils/Referencias.xlsx
+++ b/src/utils/Referencias.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\Code\tv_auto_measure\src\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919963A0-F5F8-4A69-B167-11E8BBF0349E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC8DA7E-1A25-4334-AC40-25FF006AF289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="3" xr2:uid="{1C2DAADC-9BB5-47A0-912D-C24A6ECEE110}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="4" xr2:uid="{1C2DAADC-9BB5-47A0-912D-C24A6ECEE110}"/>
   </bookViews>
   <sheets>
     <sheet name="Regionales" sheetId="1" r:id="rId1"/>
     <sheet name="Ingenieros" sheetId="2" r:id="rId2"/>
     <sheet name="Estaciones" sheetId="3" r:id="rId3"/>
     <sheet name="Municipios" sheetId="4" r:id="rId4"/>
+    <sheet name="Estaciones_A" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regionales!$A$1:$H$1189</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8059" uniqueCount="4455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9317" uniqueCount="4668">
   <si>
     <t>Código DANE</t>
   </si>
@@ -13407,13 +13408,652 @@
   </si>
   <si>
     <t>Cumaribo - Vichada</t>
+  </si>
+  <si>
+    <t>Alto El Tigre</t>
+  </si>
+  <si>
+    <t>Arauca - Caldas</t>
+  </si>
+  <si>
+    <t>Argelia - Valle</t>
+  </si>
+  <si>
+    <t>Atanquez*</t>
+  </si>
+  <si>
+    <t>Bábega</t>
+  </si>
+  <si>
+    <t>Badillo*</t>
+  </si>
+  <si>
+    <t>Belén De Umbría</t>
+  </si>
+  <si>
+    <t>Belencito</t>
+  </si>
+  <si>
+    <t>Boquerón de Chipaque</t>
+  </si>
+  <si>
+    <t>Buenavista - Providencia</t>
+  </si>
+  <si>
+    <t>Calatrava</t>
+  </si>
+  <si>
+    <t>Carmen De Atrato</t>
+  </si>
+  <si>
+    <t>Casabaja</t>
+  </si>
+  <si>
+    <t>Casuarito</t>
+  </si>
+  <si>
+    <t>Cerro Alegría - Gama</t>
+  </si>
+  <si>
+    <t>Cerro Alemania - Junin</t>
+  </si>
+  <si>
+    <t>Cerro Amarillo - Mallama</t>
+  </si>
+  <si>
+    <t>Cerro Bolívar</t>
+  </si>
+  <si>
+    <t>Cerro Carepa</t>
+  </si>
+  <si>
+    <t>Cerro Cristales - Ubalá</t>
+  </si>
+  <si>
+    <t>Cerro Gazanore - Mámbita</t>
+  </si>
+  <si>
+    <t>Cerro Kennedy</t>
+  </si>
+  <si>
+    <t>Cerro Neiva</t>
+  </si>
+  <si>
+    <t>Cerro Oriente</t>
+  </si>
+  <si>
+    <t>Chimayoi</t>
+  </si>
+  <si>
+    <t>Chita - Jericó</t>
+  </si>
+  <si>
+    <t>Ciudad Bolívar</t>
+  </si>
+  <si>
+    <t>El Alguacil</t>
+  </si>
+  <si>
+    <t>El Ruíz</t>
+  </si>
+  <si>
+    <t>Entrerríos</t>
+  </si>
+  <si>
+    <t>Gabinete</t>
+  </si>
+  <si>
+    <t>Gachetá - Cerro Órganos</t>
+  </si>
+  <si>
+    <t>Guateque (Valle de Tenza 2) - Sutatenza</t>
+  </si>
+  <si>
+    <t>Itagüí</t>
+  </si>
+  <si>
+    <t>Jalisco</t>
+  </si>
+  <si>
+    <t>Jurisdicciones</t>
+  </si>
+  <si>
+    <t>La Azalea</t>
+  </si>
+  <si>
+    <t>La Capilla (Valle de Tenza 1)</t>
+  </si>
+  <si>
+    <t>La Herrera</t>
+  </si>
+  <si>
+    <t>La Marina</t>
+  </si>
+  <si>
+    <t>La Pita</t>
+  </si>
+  <si>
+    <t>La Popa</t>
+  </si>
+  <si>
+    <t>La Rusia</t>
+  </si>
+  <si>
+    <t>Lebrija</t>
+  </si>
+  <si>
+    <t>Lengupá</t>
+  </si>
+  <si>
+    <t>Madroño</t>
+  </si>
+  <si>
+    <t>Manjuí</t>
+  </si>
+  <si>
+    <t>Maracaibo</t>
+  </si>
+  <si>
+    <t>Mariangola</t>
+  </si>
+  <si>
+    <t>Martinica</t>
+  </si>
+  <si>
+    <t>Mirador</t>
+  </si>
+  <si>
+    <t>Montezuma</t>
+  </si>
+  <si>
+    <t>Munchique</t>
+  </si>
+  <si>
+    <t>Padre Amaya</t>
+  </si>
+  <si>
+    <t>Paez - Cerro Peña Horqueta</t>
+  </si>
+  <si>
+    <t>Pailitas*</t>
+  </si>
+  <si>
+    <t>Paz De Río</t>
+  </si>
+  <si>
+    <t>Pueblo Nuevo - Ocaña</t>
+  </si>
+  <si>
+    <t>Puerto Leguízamo</t>
+  </si>
+  <si>
+    <t>Quininí</t>
+  </si>
+  <si>
+    <t>Río Blanco</t>
+  </si>
+  <si>
+    <t>Río Prado</t>
+  </si>
+  <si>
+    <t>Ríonegro</t>
+  </si>
+  <si>
+    <t>Salazar de las Palmas - Gramalote</t>
+  </si>
+  <si>
+    <t>San Andrés - Huila</t>
+  </si>
+  <si>
+    <t>San Luis De Gaceno</t>
+  </si>
+  <si>
+    <t>San Vicente Del Caguán</t>
+  </si>
+  <si>
+    <t>Santa María II</t>
+  </si>
+  <si>
+    <t>Santiago Pérez</t>
+  </si>
+  <si>
+    <t>Sativa Norte</t>
+  </si>
+  <si>
+    <t>Siloé - Cristo Rey</t>
+  </si>
+  <si>
+    <t>Simón Bolívar</t>
+  </si>
+  <si>
+    <t>Sonsón</t>
+  </si>
+  <si>
+    <t>Tasajero</t>
+  </si>
+  <si>
+    <t>Terrón colorado - Tres Cruces</t>
+  </si>
+  <si>
+    <t>Tibitóc</t>
+  </si>
+  <si>
+    <t>Toledo - Norte de Santader</t>
+  </si>
+  <si>
+    <t>Toluviejo</t>
+  </si>
+  <si>
+    <t>Úmbita</t>
+  </si>
+  <si>
+    <t>Vegalarga</t>
+  </si>
+  <si>
+    <t>Villa De Leyva</t>
+  </si>
+  <si>
+    <t>Yarumalito</t>
+  </si>
+  <si>
+    <t>Asignado Sin Estación</t>
+  </si>
+  <si>
+    <t>Boquerón</t>
+  </si>
+  <si>
+    <t>Agustin Codazzi</t>
+  </si>
+  <si>
+    <t>El Rayo</t>
+  </si>
+  <si>
+    <t>Bañaderos</t>
+  </si>
+  <si>
+    <t>Alto Piñales</t>
+  </si>
+  <si>
+    <t>Bocas De Satinga</t>
+  </si>
+  <si>
+    <t>Campanario</t>
+  </si>
+  <si>
+    <t>Castellana</t>
+  </si>
+  <si>
+    <t>Cerro Alegre</t>
+  </si>
+  <si>
+    <t>Cerro Azul</t>
+  </si>
+  <si>
+    <t>Cerro De Oro</t>
+  </si>
+  <si>
+    <t>Cerro Pesca</t>
+  </si>
+  <si>
+    <t>Cristo Rey</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>El Deleite</t>
+  </si>
+  <si>
+    <t>El Nudo</t>
+  </si>
+  <si>
+    <t>El Ramo</t>
+  </si>
+  <si>
+    <t>El Recreo</t>
+  </si>
+  <si>
+    <t>Cerro Chuza</t>
+  </si>
+  <si>
+    <t>Cerro Florencia</t>
+  </si>
+  <si>
+    <t>Alto De Irzón</t>
+  </si>
+  <si>
+    <t>Cerro El Alto</t>
+  </si>
+  <si>
+    <t>Puerto Inírida</t>
+  </si>
+  <si>
+    <t>La Barra</t>
+  </si>
+  <si>
+    <t>La Flora</t>
+  </si>
+  <si>
+    <t>La Hormiga</t>
+  </si>
+  <si>
+    <t>La Jagua De Ibirico</t>
+  </si>
+  <si>
+    <t>La Loma</t>
+  </si>
+  <si>
+    <t>El Jazmín</t>
+  </si>
+  <si>
+    <t>Lagunaseca</t>
+  </si>
+  <si>
+    <t>Las Nubes</t>
+  </si>
+  <si>
+    <t>López De Micay</t>
+  </si>
+  <si>
+    <t>Manjui</t>
+  </si>
+  <si>
+    <t>Alto El Granadillo</t>
+  </si>
+  <si>
+    <t>Paz De Ariporo</t>
+  </si>
+  <si>
+    <t>Saboya</t>
+  </si>
+  <si>
+    <t>Las Antenas</t>
+  </si>
+  <si>
+    <t>Finca El Mirador</t>
+  </si>
+  <si>
+    <t>Alto De Guarigua</t>
+  </si>
+  <si>
+    <t>San Juan De Uraba</t>
+  </si>
+  <si>
+    <t>San Juan Del Cesar</t>
+  </si>
+  <si>
+    <t>San Pedro De Urabá</t>
+  </si>
+  <si>
+    <t>San Vicente De Chucurí</t>
+  </si>
+  <si>
+    <t>Alto De La Feliciana</t>
+  </si>
+  <si>
+    <t>Santa Librada</t>
+  </si>
+  <si>
+    <t>Santa Marta 2</t>
+  </si>
+  <si>
+    <t>Santa Marta Tres Cruces</t>
+  </si>
+  <si>
+    <t>Seminario</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Alto De Reinas</t>
+  </si>
+  <si>
+    <t>Suba</t>
+  </si>
+  <si>
+    <t>T Colorado</t>
+  </si>
+  <si>
+    <t>Toribío</t>
+  </si>
+  <si>
+    <t>El Cacique</t>
+  </si>
+  <si>
+    <t>Mata De Mora</t>
+  </si>
+  <si>
+    <t>CityTV</t>
+  </si>
+  <si>
+    <t>Señal Colombia</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>La Tolda</t>
+  </si>
+  <si>
+    <t>Juntas de Uramita</t>
+  </si>
+  <si>
+    <t>Carmen de Atrato</t>
+  </si>
+  <si>
+    <t>Ciudad Bolivar</t>
+  </si>
+  <si>
+    <t>Ríogrande</t>
+  </si>
+  <si>
+    <t>El Retiro</t>
+  </si>
+  <si>
+    <t>Nutibara</t>
+  </si>
+  <si>
+    <t>Itaguí</t>
+  </si>
+  <si>
+    <t>Bajirá</t>
+  </si>
+  <si>
+    <t>Puerto Venus (Nariño)</t>
+  </si>
+  <si>
+    <t>Puerto Nare</t>
+  </si>
+  <si>
+    <t>El Junco</t>
+  </si>
+  <si>
+    <t>El Oro</t>
+  </si>
+  <si>
+    <t>San Andrés de Cuerquia</t>
+  </si>
+  <si>
+    <t>San Pedro de Urabá</t>
+  </si>
+  <si>
+    <t>Fraguas</t>
+  </si>
+  <si>
+    <t>Tasajera (Girardota)</t>
+  </si>
+  <si>
+    <t>El Tigre</t>
+  </si>
+  <si>
+    <t>Cedeño</t>
+  </si>
+  <si>
+    <t>Mesopotamia (La Union)</t>
+  </si>
+  <si>
+    <t>Yarumal Baja</t>
+  </si>
+  <si>
+    <t>Yarumal Alta (Victor Gutiérrez)</t>
+  </si>
+  <si>
+    <t>El Chuscal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Nudo </t>
+  </si>
+  <si>
+    <t>El Ruiz</t>
+  </si>
+  <si>
+    <t>Guacas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Cauchos </t>
+  </si>
+  <si>
+    <t>Monserrate</t>
+  </si>
+  <si>
+    <t>Piñales</t>
+  </si>
+  <si>
+    <t>Supia</t>
+  </si>
+  <si>
+    <t>Achí-Guaranda</t>
+  </si>
+  <si>
+    <t>El Socorro</t>
+  </si>
+  <si>
+    <t>Telemedellín</t>
+  </si>
+  <si>
+    <t>Manantiales</t>
+  </si>
+  <si>
+    <t>Alto de Reyes</t>
+  </si>
+  <si>
+    <t>Bahia Solano</t>
+  </si>
+  <si>
+    <t>Iscuazán</t>
+  </si>
+  <si>
+    <t>Quitasol</t>
+  </si>
+  <si>
+    <t>Siloé (Cristo Rey)</t>
+  </si>
+  <si>
+    <t>Terrón Colorado (Tres Cruces)</t>
+  </si>
+  <si>
+    <t>Cruz Verde</t>
+  </si>
+  <si>
+    <t>Yopal Alto los Venados</t>
+  </si>
+  <si>
+    <t>Guarigua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebrija </t>
+  </si>
+  <si>
+    <t>ABN</t>
+  </si>
+  <si>
+    <t>Asoc._Canal_5</t>
+  </si>
+  <si>
+    <t>TV Cinco</t>
+  </si>
+  <si>
+    <t>Bethesda</t>
+  </si>
+  <si>
+    <t>CMB TV</t>
+  </si>
+  <si>
+    <t>Cali TV</t>
+  </si>
+  <si>
+    <t>Fun._Emtel</t>
+  </si>
+  <si>
+    <t>EMTEL</t>
+  </si>
+  <si>
+    <t>Fun._Magdalena</t>
+  </si>
+  <si>
+    <t>Enlace TV</t>
+  </si>
+  <si>
+    <t>Teleamiga</t>
+  </si>
+  <si>
+    <t>Telebaranoa</t>
+  </si>
+  <si>
+    <t>Telepasto</t>
+  </si>
+  <si>
+    <t>Telepetróleo</t>
+  </si>
+  <si>
+    <t>Telesantiago</t>
+  </si>
+  <si>
+    <t>Tv_Ciudadana</t>
+  </si>
+  <si>
+    <t>TVC</t>
+  </si>
+  <si>
+    <t>TV_Ipiales</t>
+  </si>
+  <si>
+    <t>TV Ipiales</t>
+  </si>
+  <si>
+    <t>U.del_Pacífico</t>
+  </si>
+  <si>
+    <t>U del Pacífico</t>
+  </si>
+  <si>
+    <t>U.del_Valle</t>
+  </si>
+  <si>
+    <t>Canal U Valle</t>
+  </si>
+  <si>
+    <t>Canal Institucional</t>
+  </si>
+  <si>
+    <t>Canal 1</t>
+  </si>
+  <si>
+    <t>Caracol</t>
+  </si>
+  <si>
+    <t>RCN</t>
+  </si>
+  <si>
+    <t>CaliTV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13425,6 +14065,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -13444,16 +14091,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{B5BDC1FE-6E26-4A5D-A9FB-1D2D50557882}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{606DAFB9-421A-4573-89A6-C63098BF82F4}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{98CF3C0A-5A6B-4EE7-BAA0-A6BF2AAA6DF8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -32638,9 +33289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8941AD24-7BE0-4A45-B596-1860661C7E1C}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -32889,9 +33538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFE6D01-FDC8-43DF-BF00-E735A3E45BF4}">
   <dimension ref="A1:O277"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -45914,9 +46561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501EA707-3A83-45F8-B411-8F3B71E0B6AB}">
   <dimension ref="A1:B1123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -54907,4 +55552,4259 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43518160-0976-4A7E-9521-6F6FBBF0F9CC}">
+  <dimension ref="A1:AD234"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4663</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4664</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4665</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4593</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4666</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4594</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4628</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4640</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4641</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4643</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4667</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4646</v>
+      </c>
+      <c r="U1" t="s">
+        <v>4648</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4650</v>
+      </c>
+      <c r="W1" t="s">
+        <v>4651</v>
+      </c>
+      <c r="X1" t="s">
+        <v>4652</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>4653</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>4654</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>4655</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4657</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4659</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>4661</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4538</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4463</v>
+      </c>
+      <c r="F2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4626</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4464</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4629</v>
+      </c>
+      <c r="M2" t="s">
+        <v>4630</v>
+      </c>
+      <c r="N2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" t="s">
+        <v>885</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4640</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4642</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4644</v>
+      </c>
+      <c r="S2" t="s">
+        <v>4645</v>
+      </c>
+      <c r="T2" t="s">
+        <v>4647</v>
+      </c>
+      <c r="U2" t="s">
+        <v>4649</v>
+      </c>
+      <c r="V2" t="s">
+        <v>4650</v>
+      </c>
+      <c r="W2" t="s">
+        <v>4651</v>
+      </c>
+      <c r="X2" t="s">
+        <v>4652</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>4653</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>4654</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>4656</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>4658</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>4660</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>4662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4465</v>
+      </c>
+      <c r="C3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4539</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4588</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4539</v>
+      </c>
+      <c r="G3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4547</v>
+      </c>
+      <c r="J3" t="s">
+        <v>4476</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4467</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4508</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>231</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>751</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4501</v>
+      </c>
+      <c r="C4" t="s">
+        <v>751</v>
+      </c>
+      <c r="D4" t="s">
+        <v>652</v>
+      </c>
+      <c r="F4" t="s">
+        <v>652</v>
+      </c>
+      <c r="G4" t="s">
+        <v>751</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4548</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4482</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4502</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4631</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4465</v>
+      </c>
+      <c r="O4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4537</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>733</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4490</v>
+      </c>
+      <c r="K5" t="s">
+        <v>4526</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4477</v>
+      </c>
+      <c r="O5" t="s">
+        <v>4638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C6" t="s">
+        <v>652</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4540</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4540</v>
+      </c>
+      <c r="G6" t="s">
+        <v>652</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4618</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4495</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4537</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4636</v>
+      </c>
+      <c r="O6" t="s">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4455</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4455</v>
+      </c>
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4455</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4619</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4496</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N7" t="s">
+        <v>4613</v>
+      </c>
+      <c r="O7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4595</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4620</v>
+      </c>
+      <c r="J8" t="s">
+        <v>4627</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="N8" t="s">
+        <v>4485</v>
+      </c>
+      <c r="O8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4621</v>
+      </c>
+      <c r="J9" t="s">
+        <v>4532</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="N9" t="s">
+        <v>823</v>
+      </c>
+      <c r="O9" t="s">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>982</v>
+      </c>
+      <c r="F10" t="s">
+        <v>982</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" t="s">
+        <v>971</v>
+      </c>
+      <c r="M10" t="s">
+        <v>960</v>
+      </c>
+      <c r="N10" t="s">
+        <v>4497</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4381</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4381</v>
+      </c>
+      <c r="D11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F11" t="s">
+        <v>474</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4381</v>
+      </c>
+      <c r="H11" t="s">
+        <v>473</v>
+      </c>
+      <c r="I11" t="s">
+        <v>266</v>
+      </c>
+      <c r="J11" t="s">
+        <v>4537</v>
+      </c>
+      <c r="M11" t="s">
+        <v>4632</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4456</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4456</v>
+      </c>
+      <c r="D12" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" t="s">
+        <v>404</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4456</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4596</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4565</v>
+      </c>
+      <c r="M12" t="s">
+        <v>482</v>
+      </c>
+      <c r="N12" t="s">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4541</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4541</v>
+      </c>
+      <c r="G13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4622</v>
+      </c>
+      <c r="M13" t="s">
+        <v>4491</v>
+      </c>
+      <c r="N13" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>754</v>
+      </c>
+      <c r="F14" t="s">
+        <v>754</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4623</v>
+      </c>
+      <c r="M14" t="s">
+        <v>573</v>
+      </c>
+      <c r="N14" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>224</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4506</v>
+      </c>
+      <c r="M15" t="s">
+        <v>4507</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4457</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4457</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4542</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4542</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4457</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4624</v>
+      </c>
+      <c r="M16" t="s">
+        <v>468</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4458</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4458</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4543</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4543</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4458</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>302</v>
+      </c>
+      <c r="M17" t="s">
+        <v>4633</v>
+      </c>
+      <c r="N17" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4459</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4459</v>
+      </c>
+      <c r="D18" t="s">
+        <v>405</v>
+      </c>
+      <c r="F18" t="s">
+        <v>405</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4459</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s">
+        <v>879</v>
+      </c>
+      <c r="M18" t="s">
+        <v>792</v>
+      </c>
+      <c r="N18" t="s">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>4460</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4460</v>
+      </c>
+      <c r="D19" t="s">
+        <v>447</v>
+      </c>
+      <c r="F19" t="s">
+        <v>447</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4460</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4625</v>
+      </c>
+      <c r="M19" t="s">
+        <v>4634</v>
+      </c>
+      <c r="N19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>473</v>
+      </c>
+      <c r="C20" t="s">
+        <v>473</v>
+      </c>
+      <c r="D20" t="s">
+        <v>231</v>
+      </c>
+      <c r="F20" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" t="s">
+        <v>473</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4597</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4537</v>
+      </c>
+      <c r="M20" t="s">
+        <v>431</v>
+      </c>
+      <c r="N20" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" t="s">
+        <v>755</v>
+      </c>
+      <c r="F21" t="s">
+        <v>755</v>
+      </c>
+      <c r="G21" t="s">
+        <v>225</v>
+      </c>
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" t="s">
+        <v>4635</v>
+      </c>
+      <c r="N21" t="s">
+        <v>4637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4461</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4461</v>
+      </c>
+      <c r="D22" t="s">
+        <v>983</v>
+      </c>
+      <c r="F22" t="s">
+        <v>983</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4461</v>
+      </c>
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" t="s">
+        <v>4537</v>
+      </c>
+      <c r="N22" t="s">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4462</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4462</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4544</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4544</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4462</v>
+      </c>
+      <c r="H23" t="s">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4473</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4473</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4545</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4545</v>
+      </c>
+      <c r="G26" t="s">
+        <v>229</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>4463</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4463</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4546</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4546</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4463</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4547</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4547</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4548</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4548</v>
+      </c>
+      <c r="G29" t="s">
+        <v>231</v>
+      </c>
+      <c r="H29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>4464</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4464</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4477</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4477</v>
+      </c>
+      <c r="G30" t="s">
+        <v>4464</v>
+      </c>
+      <c r="H30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>983</v>
+      </c>
+      <c r="C31" t="s">
+        <v>983</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4549</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4549</v>
+      </c>
+      <c r="G31" t="s">
+        <v>983</v>
+      </c>
+      <c r="H31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>4465</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D32" t="s">
+        <v>895</v>
+      </c>
+      <c r="F32" t="s">
+        <v>895</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4465</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4481</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4481</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>888</v>
+      </c>
+      <c r="C35" t="s">
+        <v>888</v>
+      </c>
+      <c r="D35" t="s">
+        <v>813</v>
+      </c>
+      <c r="F35" t="s">
+        <v>813</v>
+      </c>
+      <c r="G35" t="s">
+        <v>888</v>
+      </c>
+      <c r="H35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>4466</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4466</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4550</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4550</v>
+      </c>
+      <c r="G36" t="s">
+        <v>4466</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>450</v>
+      </c>
+      <c r="F37" t="s">
+        <v>450</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>4467</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4467</v>
+      </c>
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4467</v>
+      </c>
+      <c r="H38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>4468</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4468</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4468</v>
+      </c>
+      <c r="H39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4551</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4551</v>
+      </c>
+      <c r="G40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>890</v>
+      </c>
+      <c r="C41" t="s">
+        <v>890</v>
+      </c>
+      <c r="D41" t="s">
+        <v>451</v>
+      </c>
+      <c r="F41" t="s">
+        <v>451</v>
+      </c>
+      <c r="G41" t="s">
+        <v>890</v>
+      </c>
+      <c r="H41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>4469</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4469</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4552</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4552</v>
+      </c>
+      <c r="G42" t="s">
+        <v>4469</v>
+      </c>
+      <c r="H42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>4470</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4470</v>
+      </c>
+      <c r="D43" t="s">
+        <v>794</v>
+      </c>
+      <c r="F43" t="s">
+        <v>794</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4470</v>
+      </c>
+      <c r="H43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>4471</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4471</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4553</v>
+      </c>
+      <c r="F44" t="s">
+        <v>4553</v>
+      </c>
+      <c r="G44" t="s">
+        <v>4471</v>
+      </c>
+      <c r="H44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>4472</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4472</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4554</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4554</v>
+      </c>
+      <c r="G45" t="s">
+        <v>4472</v>
+      </c>
+      <c r="H45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4473</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4555</v>
+      </c>
+      <c r="F46" t="s">
+        <v>4555</v>
+      </c>
+      <c r="G46" t="s">
+        <v>4473</v>
+      </c>
+      <c r="H46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4474</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4556</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4556</v>
+      </c>
+      <c r="G47" t="s">
+        <v>4474</v>
+      </c>
+      <c r="H47" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>4475</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4475</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4557</v>
+      </c>
+      <c r="F48" t="s">
+        <v>4557</v>
+      </c>
+      <c r="G48" t="s">
+        <v>4475</v>
+      </c>
+      <c r="H48" t="s">
+        <v>4603</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>4476</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4476</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" t="s">
+        <v>4476</v>
+      </c>
+      <c r="H49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>4477</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4477</v>
+      </c>
+      <c r="D50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" t="s">
+        <v>4477</v>
+      </c>
+      <c r="H50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>4478</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4478</v>
+      </c>
+      <c r="D51" t="s">
+        <v>960</v>
+      </c>
+      <c r="F51" t="s">
+        <v>960</v>
+      </c>
+      <c r="G51" t="s">
+        <v>4478</v>
+      </c>
+      <c r="H51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>762</v>
+      </c>
+      <c r="C52" t="s">
+        <v>762</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4558</v>
+      </c>
+      <c r="F52" t="s">
+        <v>4558</v>
+      </c>
+      <c r="G52" t="s">
+        <v>762</v>
+      </c>
+      <c r="H52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>891</v>
+      </c>
+      <c r="C53" t="s">
+        <v>891</v>
+      </c>
+      <c r="D53" t="s">
+        <v>658</v>
+      </c>
+      <c r="F53" t="s">
+        <v>658</v>
+      </c>
+      <c r="G53" t="s">
+        <v>891</v>
+      </c>
+      <c r="H53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>892</v>
+      </c>
+      <c r="C54" t="s">
+        <v>892</v>
+      </c>
+      <c r="D54" t="s">
+        <v>659</v>
+      </c>
+      <c r="F54" t="s">
+        <v>659</v>
+      </c>
+      <c r="G54" t="s">
+        <v>892</v>
+      </c>
+      <c r="H54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>4479</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4479</v>
+      </c>
+      <c r="D55" t="s">
+        <v>562</v>
+      </c>
+      <c r="F55" t="s">
+        <v>562</v>
+      </c>
+      <c r="G55" t="s">
+        <v>4479</v>
+      </c>
+      <c r="H55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>348</v>
+      </c>
+      <c r="C56" t="s">
+        <v>348</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4559</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4559</v>
+      </c>
+      <c r="G56" t="s">
+        <v>348</v>
+      </c>
+      <c r="H56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>4480</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4480</v>
+      </c>
+      <c r="D57" t="s">
+        <v>997</v>
+      </c>
+      <c r="F57" t="s">
+        <v>997</v>
+      </c>
+      <c r="G57" t="s">
+        <v>4480</v>
+      </c>
+      <c r="H57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>543</v>
+      </c>
+      <c r="C58" t="s">
+        <v>543</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4560</v>
+      </c>
+      <c r="F58" t="s">
+        <v>4560</v>
+      </c>
+      <c r="G58" t="s">
+        <v>543</v>
+      </c>
+      <c r="H58" t="s">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>544</v>
+      </c>
+      <c r="C59" t="s">
+        <v>544</v>
+      </c>
+      <c r="D59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F59" t="s">
+        <v>211</v>
+      </c>
+      <c r="G59" t="s">
+        <v>544</v>
+      </c>
+      <c r="H59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" t="s">
+        <v>482</v>
+      </c>
+      <c r="F60" t="s">
+        <v>482</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>4481</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4481</v>
+      </c>
+      <c r="D61" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" t="s">
+        <v>4481</v>
+      </c>
+      <c r="H61" t="s">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>656</v>
+      </c>
+      <c r="C62" t="s">
+        <v>656</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4490</v>
+      </c>
+      <c r="F62" t="s">
+        <v>4490</v>
+      </c>
+      <c r="G62" t="s">
+        <v>656</v>
+      </c>
+      <c r="H62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4561</v>
+      </c>
+      <c r="F63" t="s">
+        <v>4561</v>
+      </c>
+      <c r="G63" t="s">
+        <v>48</v>
+      </c>
+      <c r="H63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>758</v>
+      </c>
+      <c r="C64" t="s">
+        <v>758</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4562</v>
+      </c>
+      <c r="F64" t="s">
+        <v>4562</v>
+      </c>
+      <c r="G64" t="s">
+        <v>758</v>
+      </c>
+      <c r="H64" t="s">
+        <v>4606</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>897</v>
+      </c>
+      <c r="C65" t="s">
+        <v>897</v>
+      </c>
+      <c r="D65" t="s">
+        <v>571</v>
+      </c>
+      <c r="F65" t="s">
+        <v>571</v>
+      </c>
+      <c r="G65" t="s">
+        <v>897</v>
+      </c>
+      <c r="H65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>898</v>
+      </c>
+      <c r="C66" t="s">
+        <v>898</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4563</v>
+      </c>
+      <c r="F66" t="s">
+        <v>4563</v>
+      </c>
+      <c r="G66" t="s">
+        <v>898</v>
+      </c>
+      <c r="H66" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" t="s">
+        <v>249</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4564</v>
+      </c>
+      <c r="F67" t="s">
+        <v>4564</v>
+      </c>
+      <c r="G67" t="s">
+        <v>249</v>
+      </c>
+      <c r="H67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>547</v>
+      </c>
+      <c r="C68" t="s">
+        <v>547</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4565</v>
+      </c>
+      <c r="F68" t="s">
+        <v>4565</v>
+      </c>
+      <c r="G68" t="s">
+        <v>547</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D69" t="s">
+        <v>377</v>
+      </c>
+      <c r="F69" t="s">
+        <v>377</v>
+      </c>
+      <c r="G69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D70" t="s">
+        <v>573</v>
+      </c>
+      <c r="F70" t="s">
+        <v>573</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>4482</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4482</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4495</v>
+      </c>
+      <c r="F71" t="s">
+        <v>4495</v>
+      </c>
+      <c r="G71" t="s">
+        <v>4482</v>
+      </c>
+      <c r="H71" t="s">
+        <v>4607</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>816</v>
+      </c>
+      <c r="C72" t="s">
+        <v>816</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4566</v>
+      </c>
+      <c r="F72" t="s">
+        <v>4566</v>
+      </c>
+      <c r="G72" t="s">
+        <v>816</v>
+      </c>
+      <c r="H72" t="s">
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" t="s">
+        <v>252</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4496</v>
+      </c>
+      <c r="F73" t="s">
+        <v>4496</v>
+      </c>
+      <c r="G73" t="s">
+        <v>252</v>
+      </c>
+      <c r="H73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D74" t="s">
+        <v>856</v>
+      </c>
+      <c r="F74" t="s">
+        <v>856</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H74" t="s">
+        <v>4609</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>253</v>
+      </c>
+      <c r="C75" t="s">
+        <v>253</v>
+      </c>
+      <c r="D75" t="s">
+        <v>417</v>
+      </c>
+      <c r="F75" t="s">
+        <v>417</v>
+      </c>
+      <c r="G75" t="s">
+        <v>253</v>
+      </c>
+      <c r="H75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>765</v>
+      </c>
+      <c r="C76" t="s">
+        <v>765</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4567</v>
+      </c>
+      <c r="F76" t="s">
+        <v>4567</v>
+      </c>
+      <c r="G76" t="s">
+        <v>765</v>
+      </c>
+      <c r="H76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>4483</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4483</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4568</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4568</v>
+      </c>
+      <c r="G77" t="s">
+        <v>4483</v>
+      </c>
+      <c r="H77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>766</v>
+      </c>
+      <c r="C78" t="s">
+        <v>766</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4498</v>
+      </c>
+      <c r="F78" t="s">
+        <v>4498</v>
+      </c>
+      <c r="G78" t="s">
+        <v>766</v>
+      </c>
+      <c r="H78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>411</v>
+      </c>
+      <c r="C79" t="s">
+        <v>411</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>411</v>
+      </c>
+      <c r="H79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>4484</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4569</v>
+      </c>
+      <c r="F80" t="s">
+        <v>4569</v>
+      </c>
+      <c r="G80" t="s">
+        <v>4484</v>
+      </c>
+      <c r="H80" t="s">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
+        <v>156</v>
+      </c>
+      <c r="G81" t="s">
+        <v>140</v>
+      </c>
+      <c r="H81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" t="s">
+        <v>922</v>
+      </c>
+      <c r="F82" t="s">
+        <v>922</v>
+      </c>
+      <c r="G82" t="s">
+        <v>60</v>
+      </c>
+      <c r="H82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>4485</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4485</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4570</v>
+      </c>
+      <c r="F83" t="s">
+        <v>4570</v>
+      </c>
+      <c r="G83" t="s">
+        <v>4485</v>
+      </c>
+      <c r="H83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>4486</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4486</v>
+      </c>
+      <c r="D84" t="s">
+        <v>352</v>
+      </c>
+      <c r="F84" t="s">
+        <v>352</v>
+      </c>
+      <c r="G84" t="s">
+        <v>4486</v>
+      </c>
+      <c r="H84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>960</v>
+      </c>
+      <c r="C85" t="s">
+        <v>960</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4504</v>
+      </c>
+      <c r="F85" t="s">
+        <v>4504</v>
+      </c>
+      <c r="G85" t="s">
+        <v>960</v>
+      </c>
+      <c r="H85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>855</v>
+      </c>
+      <c r="C86" t="s">
+        <v>855</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G86" t="s">
+        <v>855</v>
+      </c>
+      <c r="H86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4571</v>
+      </c>
+      <c r="F87" t="s">
+        <v>4571</v>
+      </c>
+      <c r="G87" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4611</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>3385</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D88" t="s">
+        <v>510</v>
+      </c>
+      <c r="F88" t="s">
+        <v>510</v>
+      </c>
+      <c r="G88" t="s">
+        <v>3385</v>
+      </c>
+      <c r="H88" t="s">
+        <v>4527</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>3827</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3827</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4507</v>
+      </c>
+      <c r="F89" t="s">
+        <v>4507</v>
+      </c>
+      <c r="G89" t="s">
+        <v>3827</v>
+      </c>
+      <c r="H89" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>561</v>
+      </c>
+      <c r="C90" t="s">
+        <v>561</v>
+      </c>
+      <c r="D90" t="s">
+        <v>85</v>
+      </c>
+      <c r="F90" t="s">
+        <v>85</v>
+      </c>
+      <c r="G90" t="s">
+        <v>561</v>
+      </c>
+      <c r="H90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" t="s">
+        <v>512</v>
+      </c>
+      <c r="F91" t="s">
+        <v>512</v>
+      </c>
+      <c r="G91" t="s">
+        <v>65</v>
+      </c>
+      <c r="H91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>562</v>
+      </c>
+      <c r="C92" t="s">
+        <v>562</v>
+      </c>
+      <c r="D92" t="s">
+        <v>844</v>
+      </c>
+      <c r="F92" t="s">
+        <v>844</v>
+      </c>
+      <c r="G92" t="s">
+        <v>562</v>
+      </c>
+      <c r="H92" t="s">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>4487</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4487</v>
+      </c>
+      <c r="D93" t="s">
+        <v>848</v>
+      </c>
+      <c r="F93" t="s">
+        <v>848</v>
+      </c>
+      <c r="G93" t="s">
+        <v>4487</v>
+      </c>
+      <c r="H93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>567</v>
+      </c>
+      <c r="C94" t="s">
+        <v>567</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4508</v>
+      </c>
+      <c r="F94" t="s">
+        <v>4508</v>
+      </c>
+      <c r="G94" t="s">
+        <v>567</v>
+      </c>
+      <c r="H94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>829</v>
+      </c>
+      <c r="F95" t="s">
+        <v>829</v>
+      </c>
+      <c r="G95" t="s">
+        <v>68</v>
+      </c>
+      <c r="H95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>637</v>
+      </c>
+      <c r="C96" t="s">
+        <v>637</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4572</v>
+      </c>
+      <c r="F96" t="s">
+        <v>4572</v>
+      </c>
+      <c r="G96" t="s">
+        <v>637</v>
+      </c>
+      <c r="H96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>414</v>
+      </c>
+      <c r="C97" t="s">
+        <v>414</v>
+      </c>
+      <c r="D97" t="s">
+        <v>360</v>
+      </c>
+      <c r="F97" t="s">
+        <v>360</v>
+      </c>
+      <c r="G97" t="s">
+        <v>414</v>
+      </c>
+      <c r="H97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>4488</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4488</v>
+      </c>
+      <c r="D98" t="s">
+        <v>932</v>
+      </c>
+      <c r="F98" t="s">
+        <v>932</v>
+      </c>
+      <c r="G98" t="s">
+        <v>4488</v>
+      </c>
+      <c r="H98" t="s">
+        <v>4613</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>71</v>
+      </c>
+      <c r="C99" t="s">
+        <v>71</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G99" t="s">
+        <v>71</v>
+      </c>
+      <c r="H99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>4489</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4489</v>
+      </c>
+      <c r="D100" t="s">
+        <v>788</v>
+      </c>
+      <c r="F100" t="s">
+        <v>788</v>
+      </c>
+      <c r="G100" t="s">
+        <v>4489</v>
+      </c>
+      <c r="H100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>72</v>
+      </c>
+      <c r="C101" t="s">
+        <v>72</v>
+      </c>
+      <c r="D101" t="s">
+        <v>845</v>
+      </c>
+      <c r="F101" t="s">
+        <v>845</v>
+      </c>
+      <c r="G101" t="s">
+        <v>72</v>
+      </c>
+      <c r="H101" t="s">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" t="s">
+        <v>73</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G102" t="s">
+        <v>73</v>
+      </c>
+      <c r="H102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>483</v>
+      </c>
+      <c r="C103" t="s">
+        <v>483</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4513</v>
+      </c>
+      <c r="F103" t="s">
+        <v>4513</v>
+      </c>
+      <c r="G103" t="s">
+        <v>483</v>
+      </c>
+      <c r="H103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>4490</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4490</v>
+      </c>
+      <c r="D104" t="s">
+        <v>514</v>
+      </c>
+      <c r="F104" t="s">
+        <v>514</v>
+      </c>
+      <c r="G104" t="s">
+        <v>4490</v>
+      </c>
+      <c r="H104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>663</v>
+      </c>
+      <c r="C105" t="s">
+        <v>663</v>
+      </c>
+      <c r="D105" t="s">
+        <v>468</v>
+      </c>
+      <c r="F105" t="s">
+        <v>468</v>
+      </c>
+      <c r="G105" t="s">
+        <v>663</v>
+      </c>
+      <c r="H105" t="s">
+        <v>4615</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>4491</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4491</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G106" t="s">
+        <v>4491</v>
+      </c>
+      <c r="H106" t="s">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>571</v>
+      </c>
+      <c r="C107" t="s">
+        <v>571</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G107" t="s">
+        <v>571</v>
+      </c>
+      <c r="H107" t="s">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>4492</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4492</v>
+      </c>
+      <c r="D108" t="s">
+        <v>96</v>
+      </c>
+      <c r="F108" t="s">
+        <v>96</v>
+      </c>
+      <c r="G108" t="s">
+        <v>4492</v>
+      </c>
+      <c r="H108" t="s">
+        <v>4537</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>74</v>
+      </c>
+      <c r="C109" t="s">
+        <v>74</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G109" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>870</v>
+      </c>
+      <c r="C110" t="s">
+        <v>870</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4573</v>
+      </c>
+      <c r="F110" t="s">
+        <v>4573</v>
+      </c>
+      <c r="G110" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>775</v>
+      </c>
+      <c r="C111" t="s">
+        <v>775</v>
+      </c>
+      <c r="D111" t="s">
+        <v>363</v>
+      </c>
+      <c r="F111" t="s">
+        <v>363</v>
+      </c>
+      <c r="G111" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>776</v>
+      </c>
+      <c r="C112" t="s">
+        <v>776</v>
+      </c>
+      <c r="D112" t="s">
+        <v>99</v>
+      </c>
+      <c r="F112" t="s">
+        <v>99</v>
+      </c>
+      <c r="G112" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>4493</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4493</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4574</v>
+      </c>
+      <c r="F113" t="s">
+        <v>4574</v>
+      </c>
+      <c r="G113" t="s">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>4494</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4494</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4575</v>
+      </c>
+      <c r="F114" t="s">
+        <v>4575</v>
+      </c>
+      <c r="G114" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>4495</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4495</v>
+      </c>
+      <c r="D115" t="s">
+        <v>101</v>
+      </c>
+      <c r="F115" t="s">
+        <v>101</v>
+      </c>
+      <c r="G115" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>4496</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4576</v>
+      </c>
+      <c r="F116" t="s">
+        <v>4576</v>
+      </c>
+      <c r="G116" t="s">
+        <v>4496</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>4497</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4497</v>
+      </c>
+      <c r="D117" t="s">
+        <v>365</v>
+      </c>
+      <c r="F117" t="s">
+        <v>365</v>
+      </c>
+      <c r="G117" t="s">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>3711</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3711</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4577</v>
+      </c>
+      <c r="F118" t="s">
+        <v>4577</v>
+      </c>
+      <c r="G118" t="s">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>3842</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3842</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4578</v>
+      </c>
+      <c r="F119" t="s">
+        <v>4578</v>
+      </c>
+      <c r="G119" t="s">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>4498</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4498</v>
+      </c>
+      <c r="D120" t="s">
+        <v>210</v>
+      </c>
+      <c r="F120" t="s">
+        <v>210</v>
+      </c>
+      <c r="G120" t="s">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>4499</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4499</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4579</v>
+      </c>
+      <c r="F121" t="s">
+        <v>4579</v>
+      </c>
+      <c r="G121" t="s">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>109</v>
+      </c>
+      <c r="F122" t="s">
+        <v>109</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>78</v>
+      </c>
+      <c r="C123" t="s">
+        <v>78</v>
+      </c>
+      <c r="D123" t="s">
+        <v>110</v>
+      </c>
+      <c r="F123" t="s">
+        <v>110</v>
+      </c>
+      <c r="G123" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>920</v>
+      </c>
+      <c r="C124" t="s">
+        <v>920</v>
+      </c>
+      <c r="D124" t="s">
+        <v>111</v>
+      </c>
+      <c r="F124" t="s">
+        <v>111</v>
+      </c>
+      <c r="G124" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>4500</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4500</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4580</v>
+      </c>
+      <c r="F125" t="s">
+        <v>4580</v>
+      </c>
+      <c r="G125" t="s">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>922</v>
+      </c>
+      <c r="C126" t="s">
+        <v>922</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4521</v>
+      </c>
+      <c r="F126" t="s">
+        <v>4521</v>
+      </c>
+      <c r="G126" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>4501</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4501</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4581</v>
+      </c>
+      <c r="F127" t="s">
+        <v>4581</v>
+      </c>
+      <c r="G127" t="s">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>4502</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4502</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4582</v>
+      </c>
+      <c r="F128" t="s">
+        <v>4582</v>
+      </c>
+      <c r="G128" t="s">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>4503</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4503</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4583</v>
+      </c>
+      <c r="F129" t="s">
+        <v>4583</v>
+      </c>
+      <c r="G129" t="s">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>4504</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4504</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4584</v>
+      </c>
+      <c r="F130" t="s">
+        <v>4584</v>
+      </c>
+      <c r="G130" t="s">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>4505</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4505</v>
+      </c>
+      <c r="D131" t="s">
+        <v>879</v>
+      </c>
+      <c r="F131" t="s">
+        <v>879</v>
+      </c>
+      <c r="G131" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>271</v>
+      </c>
+      <c r="C132" t="s">
+        <v>271</v>
+      </c>
+      <c r="D132" t="s">
+        <v>142</v>
+      </c>
+      <c r="F132" t="s">
+        <v>142</v>
+      </c>
+      <c r="G132" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D133" t="s">
+        <v>836</v>
+      </c>
+      <c r="F133" t="s">
+        <v>836</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>274</v>
+      </c>
+      <c r="C134" t="s">
+        <v>274</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4585</v>
+      </c>
+      <c r="F134" t="s">
+        <v>4585</v>
+      </c>
+      <c r="G134" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>497</v>
+      </c>
+      <c r="C135" t="s">
+        <v>497</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4586</v>
+      </c>
+      <c r="F135" t="s">
+        <v>4586</v>
+      </c>
+      <c r="G135" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>4506</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4506</v>
+      </c>
+      <c r="D136" t="s">
+        <v>431</v>
+      </c>
+      <c r="F136" t="s">
+        <v>431</v>
+      </c>
+      <c r="G136" t="s">
+        <v>4506</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>4507</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4507</v>
+      </c>
+      <c r="D137" t="s">
+        <v>312</v>
+      </c>
+      <c r="F137" t="s">
+        <v>312</v>
+      </c>
+      <c r="G137" t="s">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>83</v>
+      </c>
+      <c r="C138" t="s">
+        <v>83</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4587</v>
+      </c>
+      <c r="F138" t="s">
+        <v>4587</v>
+      </c>
+      <c r="G138" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>582</v>
+      </c>
+      <c r="C139" t="s">
+        <v>582</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4527</v>
+      </c>
+      <c r="F139" t="s">
+        <v>4527</v>
+      </c>
+      <c r="G139" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" t="s">
+        <v>278</v>
+      </c>
+      <c r="D140" t="s">
+        <v>433</v>
+      </c>
+      <c r="F140" t="s">
+        <v>433</v>
+      </c>
+      <c r="G140" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>927</v>
+      </c>
+      <c r="C141" t="s">
+        <v>927</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4588</v>
+      </c>
+      <c r="F141" t="s">
+        <v>4588</v>
+      </c>
+      <c r="G141" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>280</v>
+      </c>
+      <c r="C142" t="s">
+        <v>280</v>
+      </c>
+      <c r="D142" t="s">
+        <v>4589</v>
+      </c>
+      <c r="F142" t="s">
+        <v>4589</v>
+      </c>
+      <c r="G142" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>586</v>
+      </c>
+      <c r="C143" t="s">
+        <v>586</v>
+      </c>
+      <c r="D143" t="s">
+        <v>494</v>
+      </c>
+      <c r="F143" t="s">
+        <v>494</v>
+      </c>
+      <c r="G143" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>4508</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4508</v>
+      </c>
+      <c r="D144" t="s">
+        <v>143</v>
+      </c>
+      <c r="F144" t="s">
+        <v>143</v>
+      </c>
+      <c r="G144" t="s">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>4509</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4509</v>
+      </c>
+      <c r="D145" t="s">
+        <v>120</v>
+      </c>
+      <c r="F145" t="s">
+        <v>120</v>
+      </c>
+      <c r="G145" t="s">
+        <v>4509</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>4510</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4510</v>
+      </c>
+      <c r="D146" t="s">
+        <v>4528</v>
+      </c>
+      <c r="F146" t="s">
+        <v>4528</v>
+      </c>
+      <c r="G146" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>588</v>
+      </c>
+      <c r="C147" t="s">
+        <v>588</v>
+      </c>
+      <c r="D147" t="s">
+        <v>680</v>
+      </c>
+      <c r="F147" t="s">
+        <v>680</v>
+      </c>
+      <c r="G147" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>286</v>
+      </c>
+      <c r="C148" t="s">
+        <v>286</v>
+      </c>
+      <c r="D148" t="s">
+        <v>123</v>
+      </c>
+      <c r="F148" t="s">
+        <v>123</v>
+      </c>
+      <c r="G148" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4511</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4532</v>
+      </c>
+      <c r="F149" t="s">
+        <v>4532</v>
+      </c>
+      <c r="G149" t="s">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>670</v>
+      </c>
+      <c r="C150" t="s">
+        <v>670</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4590</v>
+      </c>
+      <c r="F150" t="s">
+        <v>4590</v>
+      </c>
+      <c r="G150" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D151" t="s">
+        <v>217</v>
+      </c>
+      <c r="F151" t="s">
+        <v>217</v>
+      </c>
+      <c r="G151" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4512</v>
+      </c>
+      <c r="D152" t="s">
+        <v>4591</v>
+      </c>
+      <c r="F152" t="s">
+        <v>4591</v>
+      </c>
+      <c r="G152" t="s">
+        <v>4512</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D153" t="s">
+        <v>126</v>
+      </c>
+      <c r="F153" t="s">
+        <v>126</v>
+      </c>
+      <c r="G153" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>513</v>
+      </c>
+      <c r="C154" t="s">
+        <v>513</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4592</v>
+      </c>
+      <c r="F154" t="s">
+        <v>4592</v>
+      </c>
+      <c r="G154" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4513</v>
+      </c>
+      <c r="D155" t="s">
+        <v>385</v>
+      </c>
+      <c r="F155" t="s">
+        <v>385</v>
+      </c>
+      <c r="G155" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>594</v>
+      </c>
+      <c r="C157" t="s">
+        <v>594</v>
+      </c>
+      <c r="D157" t="s">
+        <v>636</v>
+      </c>
+      <c r="F157" t="s">
+        <v>636</v>
+      </c>
+      <c r="G157" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4514</v>
+      </c>
+      <c r="D158" t="s">
+        <v>4537</v>
+      </c>
+      <c r="F158" t="s">
+        <v>4537</v>
+      </c>
+      <c r="G158" t="s">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>294</v>
+      </c>
+      <c r="C159" t="s">
+        <v>294</v>
+      </c>
+      <c r="G159" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>596</v>
+      </c>
+      <c r="C160" t="s">
+        <v>596</v>
+      </c>
+      <c r="G160" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>4515</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4515</v>
+      </c>
+      <c r="G161" t="s">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>4516</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4516</v>
+      </c>
+      <c r="G162" t="s">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>4517</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4517</v>
+      </c>
+      <c r="G163" t="s">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>428</v>
+      </c>
+      <c r="C164" t="s">
+        <v>428</v>
+      </c>
+      <c r="G164" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>97</v>
+      </c>
+      <c r="C165" t="s">
+        <v>97</v>
+      </c>
+      <c r="G165" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>296</v>
+      </c>
+      <c r="C166" t="s">
+        <v>296</v>
+      </c>
+      <c r="G166" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>363</v>
+      </c>
+      <c r="C167" t="s">
+        <v>363</v>
+      </c>
+      <c r="G167" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4518</v>
+      </c>
+      <c r="G168" t="s">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>99</v>
+      </c>
+      <c r="C169" t="s">
+        <v>99</v>
+      </c>
+      <c r="G169" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>298</v>
+      </c>
+      <c r="C170" t="s">
+        <v>298</v>
+      </c>
+      <c r="G170" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>792</v>
+      </c>
+      <c r="C171" t="s">
+        <v>792</v>
+      </c>
+      <c r="G171" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>673</v>
+      </c>
+      <c r="C172" t="s">
+        <v>673</v>
+      </c>
+      <c r="G172" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>4519</v>
+      </c>
+      <c r="C173" t="s">
+        <v>4519</v>
+      </c>
+      <c r="G173" t="s">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>4246</v>
+      </c>
+      <c r="C174" t="s">
+        <v>4246</v>
+      </c>
+      <c r="G174" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>100</v>
+      </c>
+      <c r="C175" t="s">
+        <v>100</v>
+      </c>
+      <c r="G175" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>101</v>
+      </c>
+      <c r="C177" t="s">
+        <v>101</v>
+      </c>
+      <c r="G177" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>102</v>
+      </c>
+      <c r="C178" t="s">
+        <v>102</v>
+      </c>
+      <c r="G178" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>939</v>
+      </c>
+      <c r="C179" t="s">
+        <v>939</v>
+      </c>
+      <c r="G179" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>104</v>
+      </c>
+      <c r="C180" t="s">
+        <v>104</v>
+      </c>
+      <c r="G180" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>646</v>
+      </c>
+      <c r="C181" t="s">
+        <v>646</v>
+      </c>
+      <c r="G181" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>105</v>
+      </c>
+      <c r="C182" t="s">
+        <v>105</v>
+      </c>
+      <c r="G182" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>794</v>
+      </c>
+      <c r="C183" t="s">
+        <v>794</v>
+      </c>
+      <c r="G183" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>4520</v>
+      </c>
+      <c r="C184" t="s">
+        <v>4520</v>
+      </c>
+      <c r="G184" t="s">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>848</v>
+      </c>
+      <c r="C185" t="s">
+        <v>848</v>
+      </c>
+      <c r="G185" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>210</v>
+      </c>
+      <c r="C186" t="s">
+        <v>210</v>
+      </c>
+      <c r="G186" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>429</v>
+      </c>
+      <c r="C187" t="s">
+        <v>429</v>
+      </c>
+      <c r="G187" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>4521</v>
+      </c>
+      <c r="C188" t="s">
+        <v>4521</v>
+      </c>
+      <c r="G188" t="s">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>796</v>
+      </c>
+      <c r="C189" t="s">
+        <v>796</v>
+      </c>
+      <c r="G189" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>3966</v>
+      </c>
+      <c r="C190" t="s">
+        <v>3966</v>
+      </c>
+      <c r="G190" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>4522</v>
+      </c>
+      <c r="C191" t="s">
+        <v>4522</v>
+      </c>
+      <c r="G191" t="s">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>4523</v>
+      </c>
+      <c r="C192" t="s">
+        <v>4523</v>
+      </c>
+      <c r="G192" t="s">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>142</v>
+      </c>
+      <c r="C193" t="s">
+        <v>142</v>
+      </c>
+      <c r="G193" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>836</v>
+      </c>
+      <c r="C194" t="s">
+        <v>836</v>
+      </c>
+      <c r="G194" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>4524</v>
+      </c>
+      <c r="C195" t="s">
+        <v>4524</v>
+      </c>
+      <c r="G195" t="s">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>849</v>
+      </c>
+      <c r="C196" t="s">
+        <v>849</v>
+      </c>
+      <c r="G196" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>4525</v>
+      </c>
+      <c r="C197" t="s">
+        <v>4525</v>
+      </c>
+      <c r="G197" t="s">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>837</v>
+      </c>
+      <c r="C198" t="s">
+        <v>837</v>
+      </c>
+      <c r="G198" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>431</v>
+      </c>
+      <c r="C199" t="s">
+        <v>431</v>
+      </c>
+      <c r="G199" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>605</v>
+      </c>
+      <c r="C200" t="s">
+        <v>605</v>
+      </c>
+      <c r="G200" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>4526</v>
+      </c>
+      <c r="C201" t="s">
+        <v>4526</v>
+      </c>
+      <c r="G201" t="s">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>4527</v>
+      </c>
+      <c r="C202" t="s">
+        <v>4527</v>
+      </c>
+      <c r="G202" t="s">
+        <v>4527</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>609</v>
+      </c>
+      <c r="C203" t="s">
+        <v>609</v>
+      </c>
+      <c r="G203" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>947</v>
+      </c>
+      <c r="C204" t="s">
+        <v>947</v>
+      </c>
+      <c r="G204" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>613</v>
+      </c>
+      <c r="C205" t="s">
+        <v>613</v>
+      </c>
+      <c r="G205" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>119</v>
+      </c>
+      <c r="C206" t="s">
+        <v>119</v>
+      </c>
+      <c r="G206" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>799</v>
+      </c>
+      <c r="C207" t="s">
+        <v>799</v>
+      </c>
+      <c r="G207" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>800</v>
+      </c>
+      <c r="C208" t="s">
+        <v>800</v>
+      </c>
+      <c r="G208" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>120</v>
+      </c>
+      <c r="C209" t="s">
+        <v>120</v>
+      </c>
+      <c r="G209" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>4528</v>
+      </c>
+      <c r="C210" t="s">
+        <v>4528</v>
+      </c>
+      <c r="G210" t="s">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>615</v>
+      </c>
+      <c r="C211" t="s">
+        <v>615</v>
+      </c>
+      <c r="G211" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>722</v>
+      </c>
+      <c r="C212" t="s">
+        <v>722</v>
+      </c>
+      <c r="G212" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>4529</v>
+      </c>
+      <c r="C213" t="s">
+        <v>4529</v>
+      </c>
+      <c r="G213" t="s">
+        <v>4529</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>678</v>
+      </c>
+      <c r="C214" t="s">
+        <v>678</v>
+      </c>
+      <c r="G214" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>679</v>
+      </c>
+      <c r="C215" t="s">
+        <v>679</v>
+      </c>
+      <c r="G215" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>4530</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4530</v>
+      </c>
+      <c r="G216" t="s">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>680</v>
+      </c>
+      <c r="C217" t="s">
+        <v>680</v>
+      </c>
+      <c r="G217" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C218" t="s">
+        <v>3444</v>
+      </c>
+      <c r="G218" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>4531</v>
+      </c>
+      <c r="C219" t="s">
+        <v>4531</v>
+      </c>
+      <c r="G219" t="s">
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>4532</v>
+      </c>
+      <c r="C220" t="s">
+        <v>4532</v>
+      </c>
+      <c r="G220" t="s">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>948</v>
+      </c>
+      <c r="C221" t="s">
+        <v>948</v>
+      </c>
+      <c r="G221" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>4533</v>
+      </c>
+      <c r="C222" t="s">
+        <v>4533</v>
+      </c>
+      <c r="G222" t="s">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>694</v>
+      </c>
+      <c r="C223" t="s">
+        <v>694</v>
+      </c>
+      <c r="G223" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>126</v>
+      </c>
+      <c r="C224" t="s">
+        <v>126</v>
+      </c>
+      <c r="G224" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>850</v>
+      </c>
+      <c r="C225" t="s">
+        <v>850</v>
+      </c>
+      <c r="G225" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>4534</v>
+      </c>
+      <c r="C226" t="s">
+        <v>4534</v>
+      </c>
+      <c r="G226" t="s">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G227" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>4535</v>
+      </c>
+      <c r="C228" t="s">
+        <v>4535</v>
+      </c>
+      <c r="G228" t="s">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>439</v>
+      </c>
+      <c r="C229" t="s">
+        <v>439</v>
+      </c>
+      <c r="G229" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>631</v>
+      </c>
+      <c r="C230" t="s">
+        <v>631</v>
+      </c>
+      <c r="G230" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>133</v>
+      </c>
+      <c r="C231" t="s">
+        <v>133</v>
+      </c>
+      <c r="G231" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>4536</v>
+      </c>
+      <c r="C232" t="s">
+        <v>4536</v>
+      </c>
+      <c r="G232" t="s">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>385</v>
+      </c>
+      <c r="C233" t="s">
+        <v>385</v>
+      </c>
+      <c r="G233" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>4537</v>
+      </c>
+      <c r="C234" t="s">
+        <v>4537</v>
+      </c>
+      <c r="G234" t="s">
+        <v>4537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>